--- a/data/unchecked/manual_collect/china/gansu/gansuCaseStatistics_20200331.xlsx
+++ b/data/unchecked/manual_collect/china/gansu/gansuCaseStatistics_20200331.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15651\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\gansu\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1115B7B-E084-4807-A413-29663DD9FA6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
+    <workbookView xWindow="7890" yWindow="1920" windowWidth="16920" windowHeight="11680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -409,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9510" uniqueCount="3335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9516" uniqueCount="3341">
   <si>
     <t>统计级别</t>
   </si>
@@ -10483,16 +10484,34 @@
 3月30日20时至3月31日20时，甘肃本地无新增新冠肺炎确诊和疑似病例。29日确诊的1例湖北输入病例在省级定点医院住院隔离治疗，病情平稳。累计追踪到湖北输入病例密切接触者4人，已全部集中隔离。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>新增无症状感染人数</t>
+  </si>
+  <si>
+    <t>新增无症状感染治愈人数</t>
+  </si>
+  <si>
+    <t>新增无症状感染死亡人数</t>
+  </si>
+  <si>
+    <t>累计无症状感染人数</t>
+  </si>
+  <si>
+    <t>累计无症状感染治愈人数</t>
+  </si>
+  <si>
+    <t>累计无症状感染死亡人数</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10567,6 +10586,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -10607,7 +10639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -10662,6 +10694,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10943,11 +10981,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:AD25"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
@@ -10960,33 +10998,36 @@
     <col min="6" max="6" width="27.3828125" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.15234375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.4609375" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="26.61328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.84375" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.3046875" style="13" customWidth="1"/>
-    <col min="23" max="23" width="31.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.15234375" style="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.4609375" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.4609375" style="13" customWidth="1"/>
+    <col min="16" max="19" width="12.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="12.4609375" style="13" customWidth="1"/>
+    <col min="23" max="24" width="26.61328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.84375" style="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.3046875" style="13" customWidth="1"/>
+    <col min="29" max="29" width="31.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.15234375" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.84375" style="13" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="21.84375" style="13" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.15234375" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.84375" style="13"/>
+    <col min="40" max="40" width="8.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="31.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="31" style="13" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.15234375" style="13" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="10.84375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="18" customFormat="1" ht="16" customHeight="1">
+    <row r="1" spans="1:46" s="18" customFormat="1" ht="16" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>3251</v>
       </c>
@@ -11024,91 +11065,109 @@
         <v>3257</v>
       </c>
       <c r="M1" s="16" t="s">
+        <v>3335</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>3336</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>3337</v>
+      </c>
+      <c r="P1" s="16" t="s">
         <v>3258</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>3259</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>3260</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>3261</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="T1" s="24" t="s">
+        <v>3338</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>3339</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>3340</v>
+      </c>
+      <c r="W1" s="16" t="s">
         <v>3262</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>3263</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>3264</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>3265</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>3266</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>3267</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="AD1" s="16" t="s">
         <v>3268</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="AE1" s="16" t="s">
         <v>3269</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AF1" s="16" t="s">
         <v>3270</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AG1" s="16" t="s">
         <v>3271</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AH1" s="16" t="s">
         <v>3272</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>3273</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AJ1" s="16" t="s">
         <v>3274</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AK1" s="16" t="s">
         <v>3275</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AL1" s="16" t="s">
         <v>3276</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AM1" s="16" t="s">
         <v>3277</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AN1" s="16" t="s">
         <v>3278</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AO1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="16" t="s">
+      <c r="AP1" s="16" t="s">
         <v>3279</v>
       </c>
-      <c r="AK1" s="16" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>3280</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AR1" s="16" t="s">
         <v>3281</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AS1" s="16" t="s">
         <v>3282</v>
       </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AT1" s="16" t="s">
         <v>3283</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="16.5" customHeight="1">
+    <row r="2" spans="1:46" ht="16.5" customHeight="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -11132,56 +11191,59 @@
       <c r="I2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="12">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12">
         <v>138</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12">
         <v>125</v>
       </c>
-      <c r="P2" s="13">
+      <c r="S2" s="13">
         <v>2</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="T2" s="15">
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Z2" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U2" s="22" t="s">
+      <c r="AA2" s="22" t="s">
         <v>3333</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="AB2" s="21" t="s">
         <v>3330</v>
       </c>
-      <c r="W2" s="15"/>
-      <c r="Z2" s="15">
+      <c r="AC2" s="15"/>
+      <c r="AF2" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AG2" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AH2" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AI2" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD2" s="15">
+      <c r="AJ2" s="15">
         <v>43922.416666666664</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AK2" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AL2" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AM2" s="13" t="s">
         <v>3316</v>
       </c>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-    </row>
-    <row r="3" spans="1:40" ht="16" customHeight="1">
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+    </row>
+    <row r="3" spans="1:46" ht="16" customHeight="1">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -11203,50 +11265,50 @@
       <c r="G3" s="12" t="s">
         <v>3295</v>
       </c>
-      <c r="M3" s="13">
+      <c r="P3" s="13">
         <v>37</v>
       </c>
-      <c r="O3" s="13">
+      <c r="R3" s="13">
         <v>34</v>
       </c>
-      <c r="P3" s="13">
+      <c r="S3" s="13">
         <v>2</v>
       </c>
-      <c r="T3" s="15">
+      <c r="Z3" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="AA3" s="22" t="s">
         <v>3334</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="AB3" s="21" t="s">
         <v>3331</v>
       </c>
-      <c r="Z3" s="15">
+      <c r="AF3" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AG3" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AH3" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AI3" s="13" t="s">
         <v>3313</v>
       </c>
-      <c r="AD3" s="20">
+      <c r="AJ3" s="20">
         <v>43922.416666666664</v>
       </c>
-      <c r="AE3" s="13" t="s">
+      <c r="AK3" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AL3" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG3" s="13" t="s">
+      <c r="AM3" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="16" customHeight="1">
+    <row r="4" spans="1:46" ht="16" customHeight="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -11268,41 +11330,41 @@
       <c r="G4" s="12" t="s">
         <v>3296</v>
       </c>
-      <c r="T4" s="15">
+      <c r="Z4" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U4" s="22" t="s">
+      <c r="AA4" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="AB4" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z4" s="15">
+      <c r="AF4" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA4" s="13" t="s">
+      <c r="AG4" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB4" s="13" t="s">
+      <c r="AH4" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC4" s="13" t="s">
+      <c r="AI4" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD4" s="15">
+      <c r="AJ4" s="15">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE4" s="13" t="s">
+      <c r="AK4" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AF4" s="13" t="s">
+      <c r="AL4" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG4" s="13" t="s">
+      <c r="AM4" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="16" customHeight="1">
+    <row r="5" spans="1:46" ht="16" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -11324,47 +11386,47 @@
       <c r="G5" s="12" t="s">
         <v>3297</v>
       </c>
-      <c r="M5" s="13">
+      <c r="P5" s="13">
         <v>1</v>
       </c>
-      <c r="O5" s="13">
+      <c r="R5" s="13">
         <v>1</v>
       </c>
-      <c r="T5" s="15">
+      <c r="Z5" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U5" s="22" t="s">
+      <c r="AA5" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="AB5" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z5" s="15">
+      <c r="AF5" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA5" s="13" t="s">
+      <c r="AG5" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB5" s="13" t="s">
+      <c r="AH5" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC5" s="13" t="s">
+      <c r="AI5" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD5" s="20">
+      <c r="AJ5" s="20">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE5" s="13" t="s">
+      <c r="AK5" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AF5" s="13" t="s">
+      <c r="AL5" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG5" s="13" t="s">
+      <c r="AM5" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="16" customHeight="1">
+    <row r="6" spans="1:46" ht="16" customHeight="1">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -11386,47 +11448,47 @@
       <c r="G6" s="12" t="s">
         <v>3298</v>
       </c>
-      <c r="M6" s="13">
+      <c r="P6" s="13">
         <v>4</v>
       </c>
-      <c r="O6" s="13">
+      <c r="R6" s="13">
         <v>4</v>
       </c>
-      <c r="T6" s="15">
+      <c r="Z6" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U6" s="22" t="s">
+      <c r="AA6" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V6" s="21" t="s">
+      <c r="AB6" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z6" s="15">
+      <c r="AF6" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA6" s="13" t="s">
+      <c r="AG6" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB6" s="13" t="s">
+      <c r="AH6" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC6" s="13" t="s">
+      <c r="AI6" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD6" s="15">
+      <c r="AJ6" s="15">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE6" s="13" t="s">
+      <c r="AK6" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AF6" s="13" t="s">
+      <c r="AL6" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG6" s="13" t="s">
+      <c r="AM6" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="16" customHeight="1">
+    <row r="7" spans="1:46" ht="16" customHeight="1">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -11448,47 +11510,47 @@
       <c r="G7" s="12" t="s">
         <v>3299</v>
       </c>
-      <c r="M7" s="13">
+      <c r="P7" s="13">
         <v>12</v>
       </c>
-      <c r="O7" s="13">
+      <c r="R7" s="13">
         <v>12</v>
       </c>
-      <c r="T7" s="15">
+      <c r="Z7" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U7" s="22" t="s">
+      <c r="AA7" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V7" s="21" t="s">
+      <c r="AB7" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z7" s="15">
+      <c r="AF7" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA7" s="13" t="s">
+      <c r="AG7" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB7" s="13" t="s">
+      <c r="AH7" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC7" s="13" t="s">
+      <c r="AI7" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD7" s="20">
+      <c r="AJ7" s="20">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE7" s="13" t="s">
+      <c r="AK7" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AF7" s="13" t="s">
+      <c r="AL7" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG7" s="13" t="s">
+      <c r="AM7" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="16" customHeight="1">
+    <row r="8" spans="1:46" ht="16" customHeight="1">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -11510,41 +11572,41 @@
       <c r="G8" s="12" t="s">
         <v>3300</v>
       </c>
-      <c r="T8" s="15">
+      <c r="Z8" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U8" s="22" t="s">
+      <c r="AA8" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V8" s="21" t="s">
+      <c r="AB8" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="AF8" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA8" s="13" t="s">
+      <c r="AG8" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB8" s="13" t="s">
+      <c r="AH8" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC8" s="13" t="s">
+      <c r="AI8" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD8" s="15">
+      <c r="AJ8" s="15">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE8" s="13" t="s">
+      <c r="AK8" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AF8" s="13" t="s">
+      <c r="AL8" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG8" s="13" t="s">
+      <c r="AM8" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="16" customHeight="1">
+    <row r="9" spans="1:46" ht="16" customHeight="1">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -11566,47 +11628,47 @@
       <c r="G9" s="12" t="s">
         <v>3301</v>
       </c>
-      <c r="M9" s="13">
+      <c r="P9" s="13">
         <v>2</v>
       </c>
-      <c r="O9" s="13">
+      <c r="R9" s="13">
         <v>2</v>
       </c>
-      <c r="T9" s="15">
+      <c r="Z9" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U9" s="22" t="s">
+      <c r="AA9" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V9" s="21" t="s">
+      <c r="AB9" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z9" s="15">
+      <c r="AF9" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA9" s="13" t="s">
+      <c r="AG9" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB9" s="13" t="s">
+      <c r="AH9" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC9" s="13" t="s">
+      <c r="AI9" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD9" s="20">
+      <c r="AJ9" s="20">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE9" s="13" t="s">
+      <c r="AK9" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AF9" s="13" t="s">
+      <c r="AL9" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG9" s="13" t="s">
+      <c r="AM9" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="16" customHeight="1">
+    <row r="10" spans="1:46" ht="16" customHeight="1">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -11628,47 +11690,47 @@
       <c r="G10" s="12" t="s">
         <v>3302</v>
       </c>
-      <c r="M10" s="13">
+      <c r="P10" s="13">
         <v>9</v>
       </c>
-      <c r="O10" s="13">
+      <c r="R10" s="13">
         <v>9</v>
       </c>
-      <c r="T10" s="15">
+      <c r="Z10" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U10" s="22" t="s">
+      <c r="AA10" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V10" s="21" t="s">
+      <c r="AB10" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z10" s="15">
+      <c r="AF10" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA10" s="13" t="s">
+      <c r="AG10" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB10" s="13" t="s">
+      <c r="AH10" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC10" s="13" t="s">
+      <c r="AI10" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD10" s="15">
+      <c r="AJ10" s="15">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE10" s="13" t="s">
+      <c r="AK10" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AF10" s="13" t="s">
+      <c r="AL10" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG10" s="13" t="s">
+      <c r="AM10" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="16" customHeight="1">
+    <row r="11" spans="1:46" ht="16" customHeight="1">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -11690,41 +11752,41 @@
       <c r="G11" s="12" t="s">
         <v>3303</v>
       </c>
-      <c r="T11" s="15">
+      <c r="Z11" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U11" s="22" t="s">
+      <c r="AA11" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V11" s="21" t="s">
+      <c r="AB11" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z11" s="15">
+      <c r="AF11" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA11" s="13" t="s">
+      <c r="AG11" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB11" s="13" t="s">
+      <c r="AH11" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC11" s="13" t="s">
+      <c r="AI11" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD11" s="20">
+      <c r="AJ11" s="20">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE11" s="13" t="s">
+      <c r="AK11" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AF11" s="13" t="s">
+      <c r="AL11" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG11" s="13" t="s">
+      <c r="AM11" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="16" customHeight="1">
+    <row r="12" spans="1:46" ht="16" customHeight="1">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -11746,47 +11808,47 @@
       <c r="G12" s="12" t="s">
         <v>3304</v>
       </c>
-      <c r="M12" s="13">
+      <c r="P12" s="13">
         <v>3</v>
       </c>
-      <c r="O12" s="13">
+      <c r="R12" s="13">
         <v>3</v>
       </c>
-      <c r="T12" s="15">
+      <c r="Z12" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U12" s="22" t="s">
+      <c r="AA12" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V12" s="21" t="s">
+      <c r="AB12" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z12" s="15">
+      <c r="AF12" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA12" s="13" t="s">
+      <c r="AG12" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB12" s="13" t="s">
+      <c r="AH12" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC12" s="13" t="s">
+      <c r="AI12" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD12" s="15">
+      <c r="AJ12" s="15">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE12" s="13" t="s">
+      <c r="AK12" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AF12" s="13" t="s">
+      <c r="AL12" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG12" s="13" t="s">
+      <c r="AM12" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="16" customHeight="1">
+    <row r="13" spans="1:46" ht="16" customHeight="1">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -11808,47 +11870,47 @@
       <c r="G13" s="12" t="s">
         <v>3305</v>
       </c>
-      <c r="M13" s="13">
+      <c r="P13" s="13">
         <v>9</v>
       </c>
-      <c r="O13" s="13">
+      <c r="R13" s="13">
         <v>9</v>
       </c>
-      <c r="T13" s="15">
+      <c r="Z13" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U13" s="22" t="s">
+      <c r="AA13" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V13" s="21" t="s">
+      <c r="AB13" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z13" s="15">
+      <c r="AF13" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA13" s="13" t="s">
+      <c r="AG13" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB13" s="13" t="s">
+      <c r="AH13" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC13" s="13" t="s">
+      <c r="AI13" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD13" s="20">
+      <c r="AJ13" s="20">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE13" s="13" t="s">
+      <c r="AK13" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AF13" s="13" t="s">
+      <c r="AL13" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG13" s="13" t="s">
+      <c r="AM13" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="16" customHeight="1">
+    <row r="14" spans="1:46" ht="16" customHeight="1">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -11870,47 +11932,47 @@
       <c r="G14" s="12" t="s">
         <v>3306</v>
       </c>
-      <c r="M14" s="13">
+      <c r="P14" s="13">
         <v>4</v>
       </c>
-      <c r="O14" s="13">
+      <c r="R14" s="13">
         <v>4</v>
       </c>
-      <c r="T14" s="15">
+      <c r="Z14" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U14" s="22" t="s">
+      <c r="AA14" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V14" s="21" t="s">
+      <c r="AB14" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z14" s="15">
+      <c r="AF14" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA14" s="13" t="s">
+      <c r="AG14" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB14" s="13" t="s">
+      <c r="AH14" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC14" s="13" t="s">
+      <c r="AI14" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD14" s="15">
+      <c r="AJ14" s="15">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE14" s="13" t="s">
+      <c r="AK14" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AF14" s="13" t="s">
+      <c r="AL14" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG14" s="13" t="s">
+      <c r="AM14" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="16" customHeight="1">
+    <row r="15" spans="1:46" ht="16" customHeight="1">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -11932,47 +11994,47 @@
       <c r="G15" s="12" t="s">
         <v>3307</v>
       </c>
-      <c r="M15" s="13">
+      <c r="P15" s="13">
         <v>3</v>
       </c>
-      <c r="O15" s="13">
+      <c r="R15" s="13">
         <v>3</v>
       </c>
-      <c r="T15" s="15">
+      <c r="Z15" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U15" s="22" t="s">
+      <c r="AA15" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V15" s="21" t="s">
+      <c r="AB15" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z15" s="15">
+      <c r="AF15" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA15" s="13" t="s">
+      <c r="AG15" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB15" s="13" t="s">
+      <c r="AH15" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC15" s="13" t="s">
+      <c r="AI15" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD15" s="20">
+      <c r="AJ15" s="20">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE15" s="13" t="s">
+      <c r="AK15" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AF15" s="13" t="s">
+      <c r="AL15" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG15" s="13" t="s">
+      <c r="AM15" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="16" customHeight="1">
+    <row r="16" spans="1:46" ht="16" customHeight="1">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -11994,47 +12056,47 @@
       <c r="G16" s="12" t="s">
         <v>3308</v>
       </c>
-      <c r="M16" s="13">
+      <c r="P16" s="13">
         <v>8</v>
       </c>
-      <c r="O16" s="13">
+      <c r="R16" s="13">
         <v>8</v>
       </c>
-      <c r="T16" s="15">
+      <c r="Z16" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U16" s="22" t="s">
+      <c r="AA16" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V16" s="21" t="s">
+      <c r="AB16" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z16" s="15">
+      <c r="AF16" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA16" s="13" t="s">
+      <c r="AG16" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB16" s="13" t="s">
+      <c r="AH16" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC16" s="13" t="s">
+      <c r="AI16" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD16" s="15">
+      <c r="AJ16" s="15">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE16" s="13" t="s">
+      <c r="AK16" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AF16" s="13" t="s">
+      <c r="AL16" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG16" s="13" t="s">
+      <c r="AM16" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="16" customHeight="1">
+    <row r="17" spans="1:39" ht="16" customHeight="1">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -12056,41 +12118,41 @@
       <c r="G17" s="12" t="s">
         <v>3309</v>
       </c>
-      <c r="T17" s="15">
+      <c r="Z17" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U17" s="22" t="s">
+      <c r="AA17" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V17" s="21" t="s">
+      <c r="AB17" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z17" s="15">
+      <c r="AF17" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA17" s="13" t="s">
+      <c r="AG17" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB17" s="13" t="s">
+      <c r="AH17" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC17" s="13" t="s">
+      <c r="AI17" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD17" s="20">
+      <c r="AJ17" s="20">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE17" s="13" t="s">
+      <c r="AK17" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="AF17" s="13" t="s">
+      <c r="AL17" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG17" s="13" t="s">
+      <c r="AM17" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="16" customHeight="1">
+    <row r="18" spans="1:39" ht="16" customHeight="1">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -12112,47 +12174,47 @@
       <c r="G18" s="13" t="s">
         <v>3317</v>
       </c>
-      <c r="M18" s="13">
+      <c r="P18" s="13">
         <v>46</v>
       </c>
-      <c r="O18" s="13">
+      <c r="R18" s="13">
         <v>36</v>
       </c>
-      <c r="T18" s="15">
+      <c r="Z18" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U18" s="22" t="s">
+      <c r="AA18" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V18" s="21" t="s">
+      <c r="AB18" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z18" s="15">
+      <c r="AF18" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA18" s="13" t="s">
+      <c r="AG18" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB18" s="13" t="s">
+      <c r="AH18" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC18" s="13" t="s">
+      <c r="AI18" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD18" s="15">
+      <c r="AJ18" s="15">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE18" s="13" t="s">
+      <c r="AK18" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AF18" s="13" t="s">
+      <c r="AL18" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG18" s="13" t="s">
+      <c r="AM18" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="16" customHeight="1">
+    <row r="19" spans="1:39" ht="16" customHeight="1">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -12177,47 +12239,47 @@
       <c r="H19" s="13" t="s">
         <v>3319</v>
       </c>
-      <c r="M19" s="13">
+      <c r="P19" s="13">
         <v>37</v>
       </c>
-      <c r="O19" s="13">
+      <c r="R19" s="13">
         <v>35</v>
       </c>
-      <c r="T19" s="15">
+      <c r="Z19" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U19" s="22" t="s">
+      <c r="AA19" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V19" s="21" t="s">
+      <c r="AB19" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z19" s="15">
+      <c r="AF19" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA19" s="13" t="s">
+      <c r="AG19" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB19" s="13" t="s">
+      <c r="AH19" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC19" s="13" t="s">
+      <c r="AI19" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD19" s="20">
+      <c r="AJ19" s="20">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE19" s="13" t="s">
+      <c r="AK19" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AF19" s="13" t="s">
+      <c r="AL19" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG19" s="13" t="s">
+      <c r="AM19" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="16" customHeight="1">
+    <row r="20" spans="1:39" ht="16" customHeight="1">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -12242,44 +12304,44 @@
       <c r="H20" s="13" t="s">
         <v>3322</v>
       </c>
-      <c r="M20" s="13">
+      <c r="P20" s="13">
         <v>4</v>
       </c>
-      <c r="T20" s="15">
+      <c r="Z20" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U20" s="22" t="s">
+      <c r="AA20" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V20" s="21" t="s">
+      <c r="AB20" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z20" s="15">
+      <c r="AF20" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA20" s="13" t="s">
+      <c r="AG20" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB20" s="13" t="s">
+      <c r="AH20" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC20" s="13" t="s">
+      <c r="AI20" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD20" s="15">
+      <c r="AJ20" s="15">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE20" s="13" t="s">
+      <c r="AK20" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AF20" s="13" t="s">
+      <c r="AL20" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG20" s="13" t="s">
+      <c r="AM20" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="16" customHeight="1">
+    <row r="21" spans="1:39" ht="16" customHeight="1">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -12304,44 +12366,44 @@
       <c r="H21" s="13" t="s">
         <v>3324</v>
       </c>
-      <c r="M21" s="13">
+      <c r="P21" s="13">
         <v>1</v>
       </c>
-      <c r="T21" s="15">
+      <c r="Z21" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U21" s="22" t="s">
+      <c r="AA21" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V21" s="21" t="s">
+      <c r="AB21" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z21" s="15">
+      <c r="AF21" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA21" s="13" t="s">
+      <c r="AG21" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB21" s="13" t="s">
+      <c r="AH21" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC21" s="13" t="s">
+      <c r="AI21" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD21" s="20">
+      <c r="AJ21" s="20">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE21" s="13" t="s">
+      <c r="AK21" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AF21" s="13" t="s">
+      <c r="AL21" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG21" s="13" t="s">
+      <c r="AM21" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="16" customHeight="1">
+    <row r="22" spans="1:39" ht="16" customHeight="1">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -12366,44 +12428,44 @@
       <c r="H22" s="13" t="s">
         <v>3325</v>
       </c>
-      <c r="M22" s="13">
+      <c r="P22" s="13">
         <v>1</v>
       </c>
-      <c r="T22" s="15">
+      <c r="Z22" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U22" s="22" t="s">
+      <c r="AA22" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V22" s="21" t="s">
+      <c r="AB22" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z22" s="15">
+      <c r="AF22" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA22" s="13" t="s">
+      <c r="AG22" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB22" s="13" t="s">
+      <c r="AH22" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC22" s="13" t="s">
+      <c r="AI22" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD22" s="15">
+      <c r="AJ22" s="15">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE22" s="13" t="s">
+      <c r="AK22" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AF22" s="13" t="s">
+      <c r="AL22" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG22" s="13" t="s">
+      <c r="AM22" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="16" customHeight="1">
+    <row r="23" spans="1:39" ht="16" customHeight="1">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -12428,44 +12490,44 @@
       <c r="H23" s="13" t="s">
         <v>3326</v>
       </c>
-      <c r="M23" s="13">
+      <c r="P23" s="13">
         <v>2</v>
       </c>
-      <c r="T23" s="15">
+      <c r="Z23" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U23" s="22" t="s">
+      <c r="AA23" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V23" s="21" t="s">
+      <c r="AB23" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z23" s="15">
+      <c r="AF23" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA23" s="13" t="s">
+      <c r="AG23" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB23" s="13" t="s">
+      <c r="AH23" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC23" s="13" t="s">
+      <c r="AI23" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD23" s="20">
+      <c r="AJ23" s="20">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE23" s="13" t="s">
+      <c r="AK23" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AF23" s="13" t="s">
+      <c r="AL23" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG23" s="13" t="s">
+      <c r="AM23" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="16" customHeight="1">
+    <row r="24" spans="1:39" ht="16" customHeight="1">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -12490,44 +12552,44 @@
       <c r="H24" s="13" t="s">
         <v>3327</v>
       </c>
-      <c r="M24" s="13">
+      <c r="P24" s="13">
         <v>1</v>
       </c>
-      <c r="T24" s="15">
+      <c r="Z24" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U24" s="22" t="s">
+      <c r="AA24" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V24" s="21" t="s">
+      <c r="AB24" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z24" s="15">
+      <c r="AF24" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA24" s="13" t="s">
+      <c r="AG24" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB24" s="13" t="s">
+      <c r="AH24" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC24" s="13" t="s">
+      <c r="AI24" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD24" s="15">
+      <c r="AJ24" s="15">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE24" s="13" t="s">
+      <c r="AK24" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AF24" s="13" t="s">
+      <c r="AL24" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG24" s="13" t="s">
+      <c r="AM24" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="16" customHeight="1">
+    <row r="25" spans="1:39" ht="16" customHeight="1">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -12552,40 +12614,40 @@
       <c r="H25" s="13" t="s">
         <v>3328</v>
       </c>
-      <c r="O25" s="13">
+      <c r="R25" s="13">
         <v>1</v>
       </c>
-      <c r="T25" s="15">
+      <c r="Z25" s="15">
         <v>43921.872696759259</v>
       </c>
-      <c r="U25" s="22" t="s">
+      <c r="AA25" s="22" t="s">
         <v>3332</v>
       </c>
-      <c r="V25" s="21" t="s">
+      <c r="AB25" s="21" t="s">
         <v>3329</v>
       </c>
-      <c r="Z25" s="15">
+      <c r="AF25" s="15">
         <v>43922.395833333336</v>
       </c>
-      <c r="AA25" s="13" t="s">
+      <c r="AG25" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AB25" s="13" t="s">
+      <c r="AH25" s="13" t="s">
         <v>3311</v>
       </c>
-      <c r="AC25" s="13" t="s">
+      <c r="AI25" s="13" t="s">
         <v>3312</v>
       </c>
-      <c r="AD25" s="20">
+      <c r="AJ25" s="20">
         <v>43922.416666608799</v>
       </c>
-      <c r="AE25" s="13" t="s">
+      <c r="AK25" s="13" t="s">
         <v>3310</v>
       </c>
-      <c r="AF25" s="13" t="s">
+      <c r="AL25" s="13" t="s">
         <v>3315</v>
       </c>
-      <c r="AG25" s="13" t="s">
+      <c r="AM25" s="13" t="s">
         <v>3316</v>
       </c>
     </row>
@@ -12593,60 +12655,60 @@
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I21 K2:R21 I22:R22 I24:R1048576 I23 K23:R23">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I21 K2:X21 I22:X22 I24:X1048576 I23 K23:X23" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AQ1048576 AK2:AK1048576 AG2:AG1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS1048576 AM2:AM1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1"/>
-    <hyperlink ref="V3" r:id="rId2"/>
-    <hyperlink ref="V4" r:id="rId3"/>
-    <hyperlink ref="V6" r:id="rId4"/>
-    <hyperlink ref="V8" r:id="rId5"/>
-    <hyperlink ref="V10" r:id="rId6"/>
-    <hyperlink ref="V12" r:id="rId7"/>
-    <hyperlink ref="V14" r:id="rId8"/>
-    <hyperlink ref="V16" r:id="rId9"/>
-    <hyperlink ref="V18" r:id="rId10"/>
-    <hyperlink ref="V20" r:id="rId11"/>
-    <hyperlink ref="V22" r:id="rId12"/>
-    <hyperlink ref="V24" r:id="rId13"/>
-    <hyperlink ref="V5" r:id="rId14"/>
-    <hyperlink ref="V7" r:id="rId15"/>
-    <hyperlink ref="V9" r:id="rId16"/>
-    <hyperlink ref="V11" r:id="rId17"/>
-    <hyperlink ref="V13" r:id="rId18"/>
-    <hyperlink ref="V15" r:id="rId19"/>
-    <hyperlink ref="V17" r:id="rId20"/>
-    <hyperlink ref="V19" r:id="rId21"/>
-    <hyperlink ref="V21" r:id="rId22"/>
-    <hyperlink ref="V23" r:id="rId23"/>
-    <hyperlink ref="V25" r:id="rId24"/>
+    <hyperlink ref="AB2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AB3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AB4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AB6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AB8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AB10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AB12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AB14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AB16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AB18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AB20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="AB22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AB24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="AB5" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AB7" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AB9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AB11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AB13" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AB15" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AB17" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="AB19" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="AB21" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AB23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AB25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
@@ -12659,7 +12721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
